--- a/teaching/traditional_assets/database/data/chile/chile_recreation.xlsx
+++ b/teaching/traditional_assets/database/data/chile/chile_recreation.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.106</v>
+        <v>-0.07730000000000001</v>
       </c>
       <c r="G2">
-        <v>-0.1666666666666667</v>
+        <v>-0.0611844452372458</v>
       </c>
       <c r="H2">
-        <v>-0.1666666666666667</v>
+        <v>-0.0611844452372458</v>
       </c>
       <c r="I2">
-        <v>-0.4791666666666666</v>
+        <v>-0.3740635033892258</v>
       </c>
       <c r="J2">
-        <v>-0.4791666666666666</v>
+        <v>-0.3419349449852482</v>
       </c>
       <c r="K2">
-        <v>-0.235</v>
+        <v>-2.25</v>
       </c>
       <c r="L2">
-        <v>-2.447916666666667</v>
+        <v>-0.2006778451658937</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,52 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.03752731011438119</v>
+      </c>
+      <c r="W2">
+        <v>-0.0462</v>
       </c>
       <c r="X2">
-        <v>0.06860433371830318</v>
+        <v>0.0686033054893818</v>
+      </c>
+      <c r="Y2">
+        <v>-0.1148033054893818</v>
+      </c>
+      <c r="Z2">
+        <v>0.1629769605349226</v>
+      </c>
+      <c r="AA2">
+        <v>-0.1029023746701847</v>
       </c>
       <c r="AB2">
-        <v>0.06860433371830318</v>
+        <v>0.0589379995332074</v>
+      </c>
+      <c r="AC2">
+        <v>-0.1604540404374995</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>16.47</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>16.47</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>13.55</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.1746924056003394</v>
+      </c>
+      <c r="AI2">
+        <v>0.2676308092297692</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.1483143607705779</v>
+      </c>
+      <c r="AK2">
+        <v>0.2311497782326851</v>
       </c>
       <c r="AL2">
-        <v>0.089</v>
+        <v>0.44</v>
       </c>
       <c r="AM2">
-        <v>0.089</v>
+        <v>0.427</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-4.947431661159507</v>
       </c>
       <c r="AO2">
-        <v>-0.5168539325842697</v>
+        <v>-9.531818181818181</v>
       </c>
       <c r="AP2">
-        <v>-0</v>
+        <v>-4.07029137879243</v>
       </c>
       <c r="AQ2">
-        <v>-0.5168539325842697</v>
+        <v>-9.822014051522249</v>
       </c>
     </row>
     <row r="3">
@@ -689,103 +710,359 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Club Hipico de Santiago S.A. (SNSE:HIPICO)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>-0.07730000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.00163265306122449</v>
+      </c>
+      <c r="H3">
+        <v>0.00163265306122449</v>
+      </c>
+      <c r="I3">
+        <v>-0.2744897959183673</v>
+      </c>
+      <c r="J3">
+        <v>-0.2744897959183673</v>
+      </c>
+      <c r="K3">
+        <v>-2.31</v>
+      </c>
+      <c r="L3">
+        <v>-0.2357142857142857</v>
+      </c>
+      <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>2.45</v>
+      </c>
+      <c r="V3">
+        <v>0.08032786885245902</v>
+      </c>
+      <c r="W3">
+        <v>-0.0462</v>
+      </c>
+      <c r="X3">
+        <v>0.0686033054893818</v>
+      </c>
+      <c r="Y3">
+        <v>-0.1148033054893818</v>
+      </c>
+      <c r="Z3">
+        <v>0.1706573791902481</v>
+      </c>
+      <c r="AA3">
+        <v>-0.04684370918589464</v>
+      </c>
+      <c r="AB3">
+        <v>0.0589379995332074</v>
+      </c>
+      <c r="AC3">
+        <v>-0.105781708719102</v>
+      </c>
+      <c r="AD3">
+        <v>7.3</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>7.3</v>
+      </c>
+      <c r="AG3">
+        <v>4.85</v>
+      </c>
+      <c r="AH3">
+        <v>0.1931216931216931</v>
+      </c>
+      <c r="AI3">
+        <v>0.1423001949317739</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1371994342291372</v>
+      </c>
+      <c r="AK3">
+        <v>0.09928352098259978</v>
+      </c>
+      <c r="AL3">
+        <v>0.128</v>
+      </c>
+      <c r="AM3">
+        <v>0.117</v>
+      </c>
+      <c r="AN3">
+        <v>-3.526570048309179</v>
+      </c>
+      <c r="AO3">
+        <v>-21.015625</v>
+      </c>
+      <c r="AP3">
+        <v>-2.342995169082126</v>
+      </c>
+      <c r="AQ3">
+        <v>-22.99145299145299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unión El Golf S.A. (SNSE:UNION GOLF)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>-0.173</v>
+      </c>
+      <c r="G4">
+        <v>-0.2984962406015038</v>
+      </c>
+      <c r="H4">
+        <v>-0.2984962406015038</v>
+      </c>
+      <c r="I4">
+        <v>-0.8796992481203006</v>
+      </c>
+      <c r="J4">
+        <v>-0.8796992481203006</v>
+      </c>
+      <c r="K4">
+        <v>-1.34</v>
+      </c>
+      <c r="L4">
+        <v>-1.007518796992481</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.47</v>
+      </c>
+      <c r="V4">
+        <v>0.05334846765039727</v>
+      </c>
+      <c r="W4">
+        <v>-0.5095057034220533</v>
+      </c>
+      <c r="X4">
+        <v>0.09814125928231206</v>
+      </c>
+      <c r="Y4">
+        <v>-0.6076469627043654</v>
+      </c>
+      <c r="Z4">
+        <v>0.1169744942832014</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1029023746701847</v>
+      </c>
+      <c r="AB4">
+        <v>0.05755166576731478</v>
+      </c>
+      <c r="AC4">
+        <v>-0.1604540404374995</v>
+      </c>
+      <c r="AD4">
+        <v>9.17</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>9.17</v>
+      </c>
+      <c r="AG4">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.5100111234705228</v>
+      </c>
+      <c r="AI4">
+        <v>0.8955078125</v>
+      </c>
+      <c r="AJ4">
+        <v>0.4968589377498572</v>
+      </c>
+      <c r="AK4">
+        <v>0.8904810644831115</v>
+      </c>
+      <c r="AL4">
+        <v>0.219</v>
+      </c>
+      <c r="AM4">
+        <v>0.219</v>
+      </c>
+      <c r="AN4">
+        <v>-9.612159329140461</v>
+      </c>
+      <c r="AO4">
+        <v>-5.342465753424658</v>
+      </c>
+      <c r="AP4">
+        <v>-9.119496855345911</v>
+      </c>
+      <c r="AQ4">
+        <v>-5.342465753424658</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Club de Polo y Equitación San Cristóbal S.A. (SNSE:POLO)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Recreation</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.106</v>
-      </c>
-      <c r="G3">
-        <v>-0.1666666666666667</v>
-      </c>
-      <c r="H3">
-        <v>-0.1666666666666667</v>
-      </c>
-      <c r="I3">
-        <v>-0.4791666666666666</v>
-      </c>
-      <c r="J3">
-        <v>-0.4791666666666666</v>
-      </c>
-      <c r="K3">
-        <v>-0.235</v>
-      </c>
-      <c r="L3">
-        <v>-2.447916666666667</v>
-      </c>
-      <c r="M3">
-        <v>-0</v>
-      </c>
-      <c r="N3">
-        <v>-0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>-0</v>
-      </c>
-      <c r="Q3">
-        <v>-0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.06860433371830318</v>
-      </c>
-      <c r="AB3">
-        <v>0.06860433371830318</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0.089</v>
-      </c>
-      <c r="AM3">
-        <v>0.089</v>
-      </c>
-      <c r="AN3">
-        <v>-0</v>
-      </c>
-      <c r="AO3">
-        <v>-0.5168539325842697</v>
-      </c>
-      <c r="AP3">
-        <v>-0</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.5168539325842697</v>
+      <c r="D5">
+        <v>0.0916</v>
+      </c>
+      <c r="G5">
+        <v>-3.719512195121951</v>
+      </c>
+      <c r="H5">
+        <v>-3.719512195121951</v>
+      </c>
+      <c r="I5">
+        <v>-4.073170731707317</v>
+      </c>
+      <c r="J5">
+        <v>-3.023628855336172</v>
+      </c>
+      <c r="K5">
+        <v>1.4</v>
+      </c>
+      <c r="L5">
+        <v>17.07317073170731</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.05978287190337842</v>
+      </c>
+      <c r="AB5">
+        <v>0.05978287190337842</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0.093</v>
+      </c>
+      <c r="AM5">
+        <v>0.091</v>
+      </c>
+      <c r="AN5">
+        <v>-0</v>
+      </c>
+      <c r="AO5">
+        <v>-3.591397849462366</v>
+      </c>
+      <c r="AP5">
+        <v>-0</v>
+      </c>
+      <c r="AQ5">
+        <v>-3.670329670329671</v>
       </c>
     </row>
   </sheetData>
